--- a/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/TurnoverImportForAggregated_minute.xlsx
+++ b/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/TurnoverImportForAggregated_minute.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johan/src/estatio-ecp/estatio/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657F7E57-2A8D-5E4B-928E-16B203237389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F0A8C2-D4EF-8941-8BAD-64AE20F62B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33820" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,12 +152,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -285,12 +291,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="114">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -745,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -885,32 +895,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>43689</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>43709</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="E4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8">
         <v>33255</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="8">
         <v>1101</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1542,35 +1552,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="3">
-        <v>41791</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="6">
+        <v>41791</v>
+      </c>
+      <c r="D25" s="6">
         <v>42856</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="E25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5" t="s">
         <v>1</v>
       </c>
     </row>

--- a/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/TurnoverImportForAggregated_minute.xlsx
+++ b/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/TurnoverImportForAggregated_minute.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johan/src/estatio-ecp/estatio/estatioapp/app/src/main/java/org/estatio/module/turnoveraggregate/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F0A8C2-D4EF-8941-8BAD-64AE20F62B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D73124-2D1F-654F-84E3-6E5035DE6288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33820" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="33">
   <si>
     <t>PRELIMINARY</t>
   </si>
@@ -108,6 +108,30 @@
   </si>
   <si>
     <t>OXF-MIN2</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t>Agg dates: 2019-8-1 - 2022-1-1</t>
+  </si>
+  <si>
+    <t>occ1_min2 in test</t>
+  </si>
+  <si>
+    <t>lease start: 2016-6-1</t>
+  </si>
+  <si>
+    <t>occ1 startdate 2014-6-1</t>
+  </si>
+  <si>
+    <t>Agg dates: 2016-6-1 - 2019-7-1</t>
+  </si>
+  <si>
+    <t>occ2_min2 in test</t>
+  </si>
+  <si>
+    <t>occ2 startdate 2014-6-1</t>
   </si>
 </sst>
 </file>
@@ -118,7 +142,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -151,6 +175,12 @@
       <sz val="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -291,7 +321,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -301,6 +331,8 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="114">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -753,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G31" sqref="G27:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -781,7 +813,7 @@
     <col min="18" max="18" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -836,8 +868,11 @@
       <c r="R1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S1" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -865,8 +900,11 @@
       <c r="L2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -895,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -924,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -951,8 +989,11 @@
       <c r="L5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S5" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -981,8 +1022,11 @@
       <c r="L6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S6" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1009,8 +1053,11 @@
       <c r="L7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S7" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1039,8 +1086,11 @@
       <c r="L8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S8" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1072,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1104,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1136,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1168,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1200,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1232,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1264,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1296,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1328,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1360,7 +1410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1392,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1424,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1456,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1488,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1520,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1552,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1584,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1609,8 +1659,11 @@
       <c r="L26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="S26" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1635,8 +1688,11 @@
       <c r="L27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="S27" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1661,8 +1717,11 @@
       <c r="L28" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="S28" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1687,8 +1746,11 @@
       <c r="L29" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="S29" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1720,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1752,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>24</v>
       </c>
